--- a/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -82,6 +82,23 @@
   </si>
   <si>
     <t>TREE</t>
+  </si>
+  <si>
+    <t>몬스터 타입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_ENEMY</t>
+  </si>
+  <si>
+    <t>NORMAL_ENEMY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_ENEMY</t>
+  </si>
+  <si>
+    <t>NEUTRALITY_ENEMY</t>
   </si>
 </sst>
 </file>
@@ -1035,16 +1052,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
@@ -1061,65 +1078,68 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1131,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>250</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>350</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
@@ -1154,40 +1174,43 @@
       <c r="O2" s="2">
         <v>1</v>
       </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
       <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>100</v>
-      </c>
-      <c r="I3" s="2">
-        <v>200</v>
       </c>
       <c r="J3" s="2">
         <v>200</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1196,45 +1219,48 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
       <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400</v>
       </c>
       <c r="J4" s="2">
         <v>400</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -1248,20 +1274,23 @@
       <c r="O4" s="2">
         <v>1</v>
       </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
@@ -1272,43 +1301,46 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>300</v>
       </c>
       <c r="J5" s="2">
         <v>300</v>
       </c>
       <c r="K5" s="2">
+        <v>300</v>
+      </c>
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>3</v>
       </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
         <v>29250</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1319,40 +1351,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>100</v>
-      </c>
-      <c r="I6" s="2">
-        <v>300</v>
       </c>
       <c r="J6" s="2">
         <v>300</v>
       </c>
       <c r="K6" s="2">
+        <v>300</v>
+      </c>
+      <c r="L6" s="2">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>100</v>
       </c>
+      <c r="P6" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
@@ -1375,18 +1410,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
       <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
         <v>100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>TANKER</t>
-  </si>
-  <si>
-    <t>BOSS</t>
   </si>
   <si>
     <t>TREE</t>
@@ -93,9 +90,6 @@
   <si>
     <t>NORMAL_ENEMY</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_ENEMY</t>
   </si>
   <si>
     <t>NEUTRALITY_ENEMY</t>
@@ -1052,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1069,8 @@
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="12.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1083,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1133,7 +1128,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -1183,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -1233,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1283,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
@@ -1333,13 +1328,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>29250</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1354,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1375,56 +1370,6 @@
         <v>100</v>
       </c>
       <c r="P6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>100</v>
-      </c>
-      <c r="P7" s="2">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -93,6 +93,16 @@
   </si>
   <si>
     <t>NEUTRALITY_ENEMY</t>
+  </si>
+  <si>
+    <t>BOSS_ENEMY</t>
+  </si>
+  <si>
+    <t>INVOKER</t>
+  </si>
+  <si>
+    <t>PREDATOR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1046,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1325,16 +1335,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>29250</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1349,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L6" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1370,6 +1380,106 @@
         <v>100</v>
       </c>
       <c r="P6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29250</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>300</v>
+      </c>
+      <c r="K7" s="2">
+        <v>300</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
@@ -81,10 +81,6 @@
     <t>TREE</t>
   </si>
   <si>
-    <t>몬스터 타입</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NORMAL_ENEMY</t>
   </si>
   <si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>PREDATOR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1138,10 +1138,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1188,10 +1188,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1238,10 +1238,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1288,10 +1288,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>29250</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>29250</v>
@@ -1438,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>

--- a/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/EnemyBaseStat.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
